--- a/py/assets/config.xlsx
+++ b/py/assets/config.xlsx
@@ -5,47 +5,66 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Desktop\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\ICBC_E-Stamp_Tool\py\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE785BC-21B4-4F4B-9C0E-46DFAF39008C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F76408-436D-4217-8398-D6D35BBEAD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="3855" windowWidth="21600" windowHeight="10335" xr2:uid="{3B349FB4-A0DD-4A60-A156-A5AD021FD122}"/>
+    <workbookView xWindow="-22920" yWindow="3105" windowWidth="16815" windowHeight="10335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ICBC E-Stamp Tool" sheetId="1" r:id="rId1"/>
+    <sheet name="ICBC E-Stamp and Copy Tool" sheetId="1" r:id="rId1"/>
     <sheet name="Bulk Copy ICBC" sheetId="2" r:id="rId2"/>
+    <sheet name="Readme" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Producer Code</t>
   </si>
   <si>
-    <t>Producer Name</t>
-  </si>
-  <si>
     <t>Path</t>
   </si>
   <si>
+    <t>Input_Path</t>
+  </si>
+  <si>
+    <t>Output_Path</t>
+  </si>
+  <si>
+    <t>C:\Users\Bernard\Desktop\New ICBC Copies</t>
+  </si>
+  <si>
+    <t>C:\Users\Bernard\Desktop\New folder</t>
+  </si>
+  <si>
+    <t>Name of Sub Folder</t>
+  </si>
+  <si>
+    <t>C:\Users\Bernard\Desktop\ICBC Copies</t>
+  </si>
+  <si>
+    <t>This script provides a one-click solution to apply a digital validation stamp to most ICBC policy documents. It automatically detects PDFs that look like policy documents and applies the ICBC digital stamp.</t>
+  </si>
+  <si>
+    <t>Two scripts included:</t>
+  </si>
+  <si>
+    <t>README: https://github.com/WebDevBernard/ICBC_E-Stamp_Tool</t>
+  </si>
+  <si>
+    <t>The Excel sheet is only needed for copying blank policy documents to a backup location; the script works without it. icbc_e-stamp_and_copy_tool requires an existing folder path; subfolders must exist or files will copy to the root. This prevents accidental folder creation from typos.</t>
+  </si>
+  <si>
     <t>AA</t>
   </si>
   <si>
@@ -58,41 +77,82 @@
     <t>DD</t>
   </si>
   <si>
+    <t>Alfa</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
     <t>EE</t>
   </si>
   <si>
-    <t>Alfa</t>
-  </si>
-  <si>
-    <t>Bravo</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>Delta</t>
-  </si>
-  <si>
     <t>Echo</t>
   </si>
   <si>
-    <t>Input_Path</t>
-  </si>
-  <si>
-    <t>Output_Path</t>
-  </si>
-  <si>
-    <t>C:\Users\Bernard\Desktop\New ICBC Copies</t>
-  </si>
-  <si>
-    <t>C:\Users\Bernard\Desktop\ICBC Copies</t>
+    <t>The bulk_copy_icbc_tool does not require an output folder or any subfolder to exist already.  It will automatically create the output folder and any producer folder.  After the script completes, it will generate a log.txt in the script folder with all the pdfs that could not be copied.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>icbc_e-stamp_and_copy_tool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Limited to stamping and copying 10 pdfs at a time, no need to specify folder.  It will check duplicates before stamping or copying.  It works as long as your policy documents are downloaded to the Download folder.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>bulk_copy_icbc_tool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> –  Use this to create a central store with all your pdfs renamed with the insured name, licence plate number and short description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +183,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,11 +230,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,73 +564,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE055F9C-29E1-41D0-826E-64D35381AD11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="A3:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -537,83 +640,143 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EE59C6-8A0C-480C-80C9-5B3F6B46AF42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="A4:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="23.25">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E9AB53-67C8-4406-B840-D76286B3DC33}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="101.85546875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="8" customFormat="1" ht="18.75">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="45">
+      <c r="A5" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:1" ht="45">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="45">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/py/assets/config.xlsx
+++ b/py/assets/config.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\ICBC_E-Stamp_Tool\py\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\ICBC_E-Stamp_Tool\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F76408-436D-4217-8398-D6D35BBEAD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C264D48E-D5BF-4BF5-A03F-08394D046560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22920" yWindow="3105" windowWidth="16815" windowHeight="10335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICBC E-Stamp and Copy Tool" sheetId="1" r:id="rId1"/>
-    <sheet name="Bulk Copy ICBC" sheetId="2" r:id="rId2"/>
+    <sheet name="Bulk Copy ICBC Tool" sheetId="2" r:id="rId2"/>
     <sheet name="Readme" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -41,61 +41,13 @@
     <t>Output_Path</t>
   </si>
   <si>
-    <t>C:\Users\Bernard\Desktop\New ICBC Copies</t>
-  </si>
-  <si>
-    <t>C:\Users\Bernard\Desktop\New folder</t>
-  </si>
-  <si>
     <t>Name of Sub Folder</t>
   </si>
   <si>
-    <t>C:\Users\Bernard\Desktop\ICBC Copies</t>
-  </si>
-  <si>
-    <t>This script provides a one-click solution to apply a digital validation stamp to most ICBC policy documents. It automatically detects PDFs that look like policy documents and applies the ICBC digital stamp.</t>
-  </si>
-  <si>
     <t>Two scripts included:</t>
   </si>
   <si>
     <t>README: https://github.com/WebDevBernard/ICBC_E-Stamp_Tool</t>
-  </si>
-  <si>
-    <t>The Excel sheet is only needed for copying blank policy documents to a backup location; the script works without it. icbc_e-stamp_and_copy_tool requires an existing folder path; subfolders must exist or files will copy to the root. This prevents accidental folder creation from typos.</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>Alfa</t>
-  </si>
-  <si>
-    <t>Bravo</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>Delta</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>Echo</t>
-  </si>
-  <si>
-    <t>The bulk_copy_icbc_tool does not require an output folder or any subfolder to exist already.  It will automatically create the output folder and any producer folder.  After the script completes, it will generate a log.txt in the script folder with all the pdfs that could not be copied.</t>
   </si>
   <si>
     <r>
@@ -146,6 +98,54 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>The bulk_copy_icbc_tool does not require an output folder or any subfolder to exist already.  It will automatically create the output folder and any producer folder.  After the script completes, it will generate a log.txt in the script folder with all the pdfs that could not be copied.</t>
+  </si>
+  <si>
+    <t>The Excel sheet is only needed for copying blank policy documents to a backup location. You can delete the Excel sheet and the script will still work. icbc_e-stamp_and_copy_tool requires an existing folder path to work. Subfolders must also exist or files will copy to the root. This is designed to prevent users from creating new folders from misspellings in the Excel Sheet.</t>
+  </si>
+  <si>
+    <t>This script provides a one-click solution to apply a digital validation stamp to most ICBC policy documents. It automatically detects PDFs that look like policy documents and applies the ICBC digital validation stamp.</t>
+  </si>
+  <si>
+    <t>C:\Users\&lt;USERNAME&gt;\Desktop\New ICBC Copies</t>
+  </si>
+  <si>
+    <t>C:\Users\&lt;USERNAME&gt;\Desktop\OLD ICBC Copies</t>
+  </si>
+  <si>
+    <t>C:\Users\&lt;USERNAME&gt;\Desktop\NEW ICBC Copies</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Alfa</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Echo</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -591,47 +591,47 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -643,9 +643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="A4:B8"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -659,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="23.25">
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -675,47 +675,47 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -727,9 +727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E9AB53-67C8-4406-B840-D76286B3DC33}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -739,40 +739,40 @@
   <sheetData>
     <row r="1" spans="1:1" s="8" customFormat="1" ht="18.75">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="30">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="45">
       <c r="A5" s="9" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:1" ht="45">
+    <row r="8" spans="1:1" ht="60">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="45">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/py/assets/config.xlsx
+++ b/py/assets/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\ICBC_E-Stamp_Tool\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\ICBC_E-Stamp_Tool\py\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C264D48E-D5BF-4BF5-A03F-08394D046560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC874F1-6FAB-417F-8907-4C31C4830132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="4320" windowWidth="16815" windowHeight="10335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICBC E-Stamp and Copy Tool" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Producer Code</t>
   </si>
@@ -147,12 +147,15 @@
   <si>
     <t>Echo</t>
   </si>
+  <si>
+    <t>Do not move empty producer 2 files into subfolders</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +212,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -251,6 +262,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,28 +577,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="A3:B7"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25">
+    <row r="1" spans="1:3" ht="23.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -602,7 +618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -610,7 +626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -618,7 +634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -626,7 +642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -635,34 +651,43 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Experimental" prompt="This toggle will move files with no producer 2 code in the root folder to a subfolder with a same file name prefix.  If there is more than one file, it will move to the subfolder with the most recent modified date." sqref="C1" xr:uid="{CC9BBE51-10A8-4DC8-B37D-B92CCE79DBF1}">
+      <formula1>"Move empty producer 2 files into subfolders, Do not move empty producer 2 files into subfolders"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25">
+    <row r="1" spans="1:3" ht="23.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="23.25">
+      <c r="C1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -670,7 +695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -686,7 +711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -694,7 +719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -702,7 +727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -710,7 +735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -719,6 +744,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Experimental" prompt="This toggle will move files with no producer 2 code in the root folder to a subfolder with a same file name prefix.  If there is more than one file, it will move to the subfolder with the most recent modified date." sqref="C1" xr:uid="{DCE87BD7-87B8-4DCA-803F-78AAD9FEBFE6}">
+      <formula1>"Move empty producer 2 files into subfolders, Do not move empty producer 2 files into subfolders"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/py/assets/config.xlsx
+++ b/py/assets/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\ICBC_E-Stamp_Tool\py\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC874F1-6FAB-417F-8907-4C31C4830132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB29FF1-B351-4139-A386-BA5A8CAFECFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="4320" windowWidth="16815" windowHeight="10335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="1980" windowWidth="16815" windowHeight="10335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICBC E-Stamp and Copy Tool" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Producer Code</t>
   </si>
@@ -48,27 +48,6 @@
   </si>
   <si>
     <t>README: https://github.com/WebDevBernard/ICBC_E-Stamp_Tool</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>icbc_e-stamp_and_copy_tool</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – Limited to stamping and copying 10 pdfs at a time, no need to specify folder.  It will check duplicates before stamping or copying.  It works as long as your policy documents are downloaded to the Download folder.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -148,14 +127,32 @@
     <t>Echo</t>
   </si>
   <si>
-    <t>Do not move empty producer 2 files into subfolders</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>icbc_e-stamp_and_copy_tool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Limited to stamping and copying 10 pdfs at a time.  It will check duplicates before stamping or copying.  It works as long as your policy documents are downloaded to the Download folder.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,14 +209,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,7 +251,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,32 +565,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,92 +595,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Experimental" prompt="This toggle will move files with no producer 2 code in the root folder to a subfolder with a same file name prefix.  If there is more than one file, it will move to the subfolder with the most recent modified date." sqref="C1" xr:uid="{CC9BBE51-10A8-4DC8-B37D-B92CCE79DBF1}">
-      <formula1>"Move empty producer 2 files into subfolders, Do not move empty producer 2 files into subfolders"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25">
+    <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="23.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,52 +680,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Experimental" prompt="This toggle will move files with no producer 2 code in the root folder to a subfolder with a same file name prefix.  If there is more than one file, it will move to the subfolder with the most recent modified date." sqref="C1" xr:uid="{DCE87BD7-87B8-4DCA-803F-78AAD9FEBFE6}">
-      <formula1>"Move empty producer 2 files into subfolders, Do not move empty producer 2 files into subfolders"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -757,9 +729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E9AB53-67C8-4406-B840-D76286B3DC33}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -774,7 +746,7 @@
     </row>
     <row r="2" spans="1:1" ht="30">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -784,12 +756,12 @@
     </row>
     <row r="5" spans="1:1" ht="45">
       <c r="A5" s="9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30">
       <c r="A6" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -797,12 +769,12 @@
     </row>
     <row r="8" spans="1:1" ht="60">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="45">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/py/assets/config.xlsx
+++ b/py/assets/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\ICBC_E-Stamp_Tool\py\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB29FF1-B351-4139-A386-BA5A8CAFECFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA3FB2F-8B8E-4E40-9204-9A4AC699772B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="1980" windowWidth="16815" windowHeight="10335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICBC E-Stamp and Copy Tool" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Producer Code</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
     <t>Input_Path</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
   </si>
   <si>
     <t>Two scripts included:</t>
-  </si>
-  <si>
-    <t>README: https://github.com/WebDevBernard/ICBC_E-Stamp_Tool</t>
   </si>
   <si>
     <r>
@@ -147,12 +141,15 @@
       <t xml:space="preserve"> – Limited to stamping and copying 10 pdfs at a time.  It will check duplicates before stamping or copying.  It works as long as your policy documents are downloaded to the Download folder.</t>
     </r>
   </si>
+  <si>
+    <t>Readme: https://github.com/WebDevBernard/ICBC_E-Stamp_Tool</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,21 +160,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -209,16 +191,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,15 +222,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -244,12 +257,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,70 +586,70 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:2" ht="18.75">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -646,78 +663,78 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="18.75">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="23.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -731,50 +748,50 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="101.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="101.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="8" customFormat="1" ht="18.75">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:1" s="4" customFormat="1" ht="18.75">
+      <c r="A1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="45">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1" ht="60">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="45">
+      <c r="A10" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="30">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="45">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="30">
-      <c r="A6" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="6"/>
-    </row>
-    <row r="8" spans="1:1" ht="60">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="45">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/py/assets/config.xlsx
+++ b/py/assets/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\ICBC_E-Stamp_Tool\py\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\ICBC_E-Stamp_Tool\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA3FB2F-8B8E-4E40-9204-9A4AC699772B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0877BD-D438-4614-B8E3-83F74A95B7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,15 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Producer Code</t>
-  </si>
-  <si>
-    <t>Input_Path</t>
-  </si>
-  <si>
-    <t>Output_Path</t>
   </si>
   <si>
     <t>Name of Sub Folder</t>
@@ -73,12 +67,6 @@
     </r>
   </si>
   <si>
-    <t>The bulk_copy_icbc_tool does not require an output folder or any subfolder to exist already.  It will automatically create the output folder and any producer folder.  After the script completes, it will generate a log.txt in the script folder with all the pdfs that could not be copied.</t>
-  </si>
-  <si>
-    <t>The Excel sheet is only needed for copying blank policy documents to a backup location. You can delete the Excel sheet and the script will still work. icbc_e-stamp_and_copy_tool requires an existing folder path to work. Subfolders must also exist or files will copy to the root. This is designed to prevent users from creating new folders from misspellings in the Excel Sheet.</t>
-  </si>
-  <si>
     <t>This script provides a one-click solution to apply a digital validation stamp to most ICBC policy documents. It automatically detects PDFs that look like policy documents and applies the ICBC digital validation stamp.</t>
   </si>
   <si>
@@ -142,14 +130,35 @@
     </r>
   </si>
   <si>
-    <t>Readme: https://github.com/WebDevBernard/ICBC_E-Stamp_Tool</t>
+    <t>README: https://github.com/WebDevBernard/ICBC_E-Stamp_Tool</t>
+  </si>
+  <si>
+    <t>Highly recommended: Read the full README before running this tool.</t>
+  </si>
+  <si>
+    <t>Do not manually create folders in your new ICBC copies folder. There is no need to manually archive files. The icbc_e-stamp_and_copy_tool includes a built-in auto-archiving feature that automatically archives all files after two years.</t>
+  </si>
+  <si>
+    <t>After auto-archiving, each file name will also be re-incremented (e.g., ABC 123 (3) → ABC 123).</t>
+  </si>
+  <si>
+    <t>Archiving occurs the first time you run either the icbc_e-stamp_and_copy_tool or the bulk_copy_icbc_tool. It only runs if there are files to archive. For example, if the user runs either tool on or after January 1, 2026, it will archive all files from 2024.</t>
+  </si>
+  <si>
+    <t>Old ICBC Copies Folder</t>
+  </si>
+  <si>
+    <t>New ICBC Copies Folder</t>
+  </si>
+  <si>
+    <t>ICBC Copies Folder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +208,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -214,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -242,11 +266,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -264,10 +303,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,70 +632,70 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
-      <c r="A1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -663,78 +709,78 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -744,11 +790,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E9AB53-67C8-4406-B840-D76286B3DC33}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -757,41 +803,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="4" customFormat="1" ht="18.75">
-      <c r="A1" s="6" t="s">
-        <v>23</v>
+      <c r="A1" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="30">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="45">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:1" ht="60">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="45">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="45">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/py/assets/config.xlsx
+++ b/py/assets/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\ICBC_E-Stamp_Tool\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0877BD-D438-4614-B8E3-83F74A95B7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4947F781-0CF2-4343-948E-67CDDB970A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="990" windowWidth="18000" windowHeight="12930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICBC E-Stamp and Copy Tool" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Producer Code</t>
   </si>
@@ -136,15 +136,6 @@
     <t>Highly recommended: Read the full README before running this tool.</t>
   </si>
   <si>
-    <t>Do not manually create folders in your new ICBC copies folder. There is no need to manually archive files. The icbc_e-stamp_and_copy_tool includes a built-in auto-archiving feature that automatically archives all files after two years.</t>
-  </si>
-  <si>
-    <t>After auto-archiving, each file name will also be re-incremented (e.g., ABC 123 (3) → ABC 123).</t>
-  </si>
-  <si>
-    <t>Archiving occurs the first time you run either the icbc_e-stamp_and_copy_tool or the bulk_copy_icbc_tool. It only runs if there are files to archive. For example, if the user runs either tool on or after January 1, 2026, it will archive all files from 2024.</t>
-  </si>
-  <si>
     <t>Old ICBC Copies Folder</t>
   </si>
   <si>
@@ -152,6 +143,12 @@
   </si>
   <si>
     <t>ICBC Copies Folder</t>
+  </si>
+  <si>
+    <t>Do not manually create folders in your new ICBC copies folder. There is no need to manually archive files. The icbc_e-stamp_and_copy_tool includes a built-in auto-archiving feature that continuously archives all files after two years.</t>
+  </si>
+  <si>
+    <t>If you accidentally moved the archive folder into a subfolder and ran the icbc_e-stamp_and_copy_tool, do not try to manually fix this folder.  Run the bulk_copy_icbc_tool to make a new folder from the ruined folder.</t>
   </si>
 </sst>
 </file>
@@ -644,7 +641,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>5</v>
@@ -721,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>6</v>
@@ -729,7 +726,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>7</v>
@@ -790,11 +787,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E9AB53-67C8-4406-B840-D76286B3DC33}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -837,17 +834,12 @@
     </row>
     <row r="10" spans="1:1" ht="45">
       <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="30">
       <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="45">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
